--- a/VulnerabilityMapping/SmartCheck.xlsx
+++ b/VulnerabilityMapping/SmartCheck.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDC668-4057-43AB-9B19-412A7D096497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248C67CF-AEAD-4619-8E86-512E9366CF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>High</t>
   </si>
@@ -174,9 +183,6 @@
     <t>SOLIDITY_ERC20_APPROVE</t>
   </si>
   <si>
-    <t>SOLIDITY_UNCHECKED_CALL</t>
-  </si>
-  <si>
     <t>SOLIDITY_TX_ORIGIN</t>
   </si>
   <si>
@@ -213,9 +219,6 @@
     <t>SOLIDITY_TRANSFER_IN_LOOP</t>
   </si>
   <si>
-    <t>SOLIDITY_CALL_WITHOUT_DATA</t>
-  </si>
-  <si>
     <t>SOLIDITY_OVERPOWERED_ROLE</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
   </si>
   <si>
     <t>SOLIDITY_SAFEMATH</t>
-  </si>
-  <si>
-    <t>SOLIDITY_SEND</t>
   </si>
   <si>
     <t>SOLIDITY_SHOULD_NOT_BE_PURE</t>
@@ -299,6 +299,22 @@
   </si>
   <si>
     <t>SOLIDITY_FUNCTION_RETURNS_TYPE_AND_NO_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLIDITY_UNCHECKED_CALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLIDITY_CALL_WITHOUT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLIDITY_SEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solidity-dos-with-throw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -746,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -757,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -771,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>41</v>
@@ -841,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -855,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -869,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -883,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -897,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -911,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -925,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -939,7 +955,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
@@ -953,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -981,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
@@ -995,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
@@ -1009,10 +1025,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
@@ -1023,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1037,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
@@ -1051,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
@@ -1065,10 +1081,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
@@ -1079,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -1093,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1107,7 +1123,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -1121,7 +1137,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -1135,7 +1151,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
@@ -1149,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>32</v>
@@ -1163,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>34</v>
@@ -1177,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
@@ -1191,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
@@ -1205,7 +1221,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>37</v>
@@ -1219,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -1233,7 +1249,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
@@ -1247,10 +1263,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -1261,7 +1277,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -1275,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
@@ -1289,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>42</v>
@@ -1303,7 +1319,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
@@ -1317,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>44</v>
@@ -1331,7 +1347,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>45</v>
@@ -1345,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>19</v>
